--- a/spiral_bebel_gear_Klingelnberg.xlsx
+++ b/spiral_bebel_gear_Klingelnberg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Takumi\github\bevel_gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D008F495-B8FB-4B59-A1C2-03E02929AB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B706B125-AA19-4D0F-952A-9F8FCAC8EF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-240" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3124,8 +3120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="G297" sqref="G297"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
